--- a/bh3/506014501151591638_2021-03-25_14-34-42.xlsx
+++ b/bh3/506014501151591638_2021-03-25_14-34-42.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -546,10 +562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-16 18:20:18</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44302.76409722222</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -621,10 +635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-30 13:44:22</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44285.57247685185</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -700,10 +712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:49:05</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44283.70075231481</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -775,10 +785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-27 10:17:00</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44282.42847222222</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -842,10 +850,8 @@
           <t>4321822432</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-27 07:46:22</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44282.32386574074</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -921,10 +927,8 @@
           <t>4321739893</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-27 06:58:44</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44282.29078703704</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -996,10 +1000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-26 18:12:11</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44281.75846064815</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1064,10 +1066,8 @@
           <t>4318108348</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:59:38</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44281.54141203704</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1132,10 +1132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-26 11:39:18</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44281.485625</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1211,10 +1209,8 @@
           <t>4317284834</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-26 08:59:33</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44281.3746875</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1278,10 +1274,8 @@
           <t>4317200350</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-26 08:20:47</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44281.3477662037</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1349,10 +1343,8 @@
           <t>4317049846</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-26 06:56:20</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44281.28912037037</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1425,10 +1417,8 @@
           <t>4316690574</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-26 00:54:09</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44281.03760416667</v>
       </c>
       <c r="I14" t="n">
         <v>3</v>
@@ -1496,10 +1486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-26 00:19:03</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44281.01322916667</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1567,10 +1555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-25 23:57:22</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44280.9981712963</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1642,10 +1628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-25 23:47:35</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44280.99137731481</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1721,10 +1705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-25 23:29:15</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44280.97864583333</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1788,10 +1770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-25 23:17:02</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44280.97016203704</v>
       </c>
       <c r="I19" t="n">
         <v>7</v>
@@ -1859,10 +1839,8 @@
           <t>4316168842</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:58:23</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44280.95721064815</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1938,10 +1916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:50:42</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44280.951875</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -2009,10 +1985,8 @@
           <t>4316103803</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:46:32</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44280.94898148148</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2084,10 +2058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:20:41</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44280.93103009259</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2147,10 +2119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:01:33</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44280.91774305556</v>
       </c>
       <c r="I24" t="n">
         <v>2</v>
@@ -2218,10 +2188,8 @@
           <t>4315831563</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-25 21:53:44</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44280.91231481481</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2289,10 +2257,8 @@
           <t>4315821870</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-25 21:52:25</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44280.91140046297</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2352,10 +2318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-25 21:46:58</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44280.90761574074</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2432,10 +2396,8 @@
           <t>4315093115</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-25 20:57:15</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44280.87309027778</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2499,10 +2461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-25 20:31:07</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44280.85494212963</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2578,10 +2538,8 @@
           <t>4314269976</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-25 20:24:23</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44280.85026620371</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2657,10 +2615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-25 20:18:05</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44280.8458912037</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2732,10 +2688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-25 20:12:37</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44280.84209490741</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2811,10 +2765,8 @@
           <t>4314903250</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-25 19:58:56</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44280.83259259259</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2883,10 +2835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-25 19:55:07</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44280.82994212963</v>
       </c>
       <c r="I34" t="n">
         <v>79</v>
@@ -2953,10 +2903,8 @@
           <t>4315093115</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-25 19:53:12</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44280.82861111111</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3020,10 +2968,8 @@
           <t>4315093115</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-25 19:49:49</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44280.82626157408</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3087,10 +3033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-25 19:29:03</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44280.81184027778</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3154,10 +3098,8 @@
           <t>4315093115</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-25 19:19:09</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44280.80496527778</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3221,10 +3163,8 @@
           <t>4315081641</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-25 19:17:06</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44280.80354166667</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3296,10 +3236,8 @@
           <t>4315065007</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-25 19:12:38</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44280.80043981481</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3371,10 +3309,8 @@
           <t>4315049702</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-25 19:10:30</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44280.79895833333</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3446,10 +3382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-25 19:09:45</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44280.7984375</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3513,10 +3447,8 @@
           <t>4314062241</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-25 19:08:37</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44280.79765046296</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3584,10 +3516,8 @@
           <t>4315031113</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-25 19:05:16</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44280.79532407408</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3659,10 +3589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-25 19:02:01</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44280.79306712963</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3730,10 +3658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:59:47</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44280.7915162037</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3797,10 +3723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:51:01</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44280.78542824074</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3860,10 +3784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:43:58</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44280.78053240741</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3935,10 +3857,8 @@
           <t>4314903250</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:39:58</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44280.77775462963</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4010,10 +3930,8 @@
           <t>4314714662</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:37:03</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44280.77572916666</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4089,10 +4007,8 @@
           <t>4314435264</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:27:15</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44280.76892361111</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4160,10 +4076,8 @@
           <t>4314829903</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:24:36</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44280.76708333333</v>
       </c>
       <c r="I52" t="n">
         <v>3</v>
@@ -4239,10 +4153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:14:01</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44280.75973379629</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4314,10 +4226,8 @@
           <t>4314771209</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:10:59</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44280.75762731482</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4393,10 +4303,8 @@
           <t>4314269976</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:05:34</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44280.75386574074</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4468,10 +4376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:05:04</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44280.75351851852</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4539,10 +4445,8 @@
           <t>4314729421</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:03:21</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44280.75232638889</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4614,10 +4518,8 @@
           <t>4314737962</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:02:58</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44280.75206018519</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4685,10 +4587,8 @@
           <t>4314471053</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:01:42</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44280.75118055556</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4752,10 +4652,8 @@
           <t>4314714662</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:00:25</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44280.75028935185</v>
       </c>
       <c r="I60" t="n">
         <v>3</v>
@@ -4823,10 +4721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:58:06</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44280.74868055555</v>
       </c>
       <c r="I61" t="n">
         <v>31</v>
@@ -4890,10 +4786,8 @@
           <t>4314709029</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:57:19</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44280.74813657408</v>
       </c>
       <c r="I62" t="n">
         <v>2</v>
@@ -4961,10 +4855,8 @@
           <t>4314678742</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:50:11</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44280.74318287037</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5036,10 +4928,8 @@
           <t>4314671785</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:48:12</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44280.74180555555</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5115,10 +5005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:47:41</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44280.74144675926</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5183,10 +5071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:44:15</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44280.7390625</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5254,10 +5140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:42:36</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44280.73791666667</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5333,10 +5217,8 @@
           <t>4314634794</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:40:09</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44280.73621527778</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5408,10 +5290,8 @@
           <t>4314633607</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:39:18</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44280.735625</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5479,10 +5359,8 @@
           <t>4314269976</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:38:57</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44280.73538194445</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5558,10 +5436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:23:25</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44280.72459490741</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5621,10 +5497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:16:21</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44280.7196875</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5688,10 +5562,8 @@
           <t>4314288665</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:15:34</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44280.71914351852</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5763,10 +5635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:11:08</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44280.71606481481</v>
       </c>
       <c r="I74" t="n">
         <v>37</v>
@@ -5842,10 +5712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:08:46</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44280.7144212963</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5909,10 +5777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:06:01</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44280.71251157407</v>
       </c>
       <c r="I76" t="n">
         <v>2</v>
@@ -5980,10 +5846,8 @@
           <t>4314488465</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:03:38</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44280.71085648148</v>
       </c>
       <c r="I77" t="n">
         <v>5</v>
@@ -6051,10 +5915,8 @@
           <t>4314475216</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:00:13</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44280.7084837963</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6130,10 +5992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:00:00</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44280.70833333334</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6201,10 +6061,8 @@
           <t>4314475216</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:59:35</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44280.70804398148</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6280,10 +6138,8 @@
           <t>4314471053</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:57:29</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44280.70658564815</v>
       </c>
       <c r="I81" t="n">
         <v>2</v>
@@ -6351,10 +6207,8 @@
           <t>4314475216</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:57:13</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44280.70640046296</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6430,10 +6284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:50:37</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44280.70181712963</v>
       </c>
       <c r="I83" t="n">
         <v>69</v>
@@ -6497,10 +6349,8 @@
           <t>4314435264</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:45:21</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44280.69815972223</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6572,10 +6422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:40:41</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44280.69491898148</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6639,10 +6487,8 @@
           <t>4314409234</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:40:07</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44280.69452546296</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6718,10 +6564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:37:33</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44280.69274305556</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6793,10 +6637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:29:09</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44280.68690972222</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6868,10 +6710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:28:43</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44280.6866087963</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6943,10 +6783,8 @@
           <t>4314355183</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:22:12</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44280.68208333333</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7014,10 +6852,8 @@
           <t>4314336256</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:18:07</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44280.67924768518</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7085,10 +6921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:17:51</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44280.6790625</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7164,10 +6998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:15:10</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44280.67719907407</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7243,10 +7075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:09:03</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44280.67295138889</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7306,10 +7136,8 @@
           <t>4314299440</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:08:02</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44280.67224537037</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7381,10 +7209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:07:15</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44280.67170138889</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7460,10 +7286,8 @@
           <t>4314301382</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:05:58</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44280.67081018518</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7535,10 +7359,8 @@
           <t>4314288665</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:03:28</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44280.66907407407</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7614,10 +7436,8 @@
           <t>4314269976</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:02:38</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44280.66849537037</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7689,10 +7509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:00:18</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44280.666875</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7760,10 +7578,8 @@
           <t>4314276067</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:59:13</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44280.66612268519</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7835,10 +7651,8 @@
           <t>4314269976</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:59:10</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44280.66608796296</v>
       </c>
       <c r="I102" t="n">
         <v>23</v>
@@ -7910,10 +7724,8 @@
           <t>4314275157</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:58:21</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44280.66552083333</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -7981,10 +7793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:57:48</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44280.66513888889</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8052,10 +7862,8 @@
           <t>4314267846</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:57:01</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44280.66459490741</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8123,10 +7931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:56:13</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44280.66403935185</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8202,10 +8008,8 @@
           <t>4314265630</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:54:54</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44280.663125</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8269,10 +8073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:52:04</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44280.6611574074</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8340,10 +8142,8 @@
           <t>4314199847</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:49:47</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44280.65957175926</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8415,10 +8215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:45:45</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44280.65677083333</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8482,10 +8280,8 @@
           <t>4314235766</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:45:04</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44280.6562962963</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8549,10 +8345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:44:52</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44280.65615740741</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8624,10 +8418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:43:34</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44280.65525462963</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8695,10 +8487,8 @@
           <t>4314199847</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:39:14</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44280.65224537037</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8770,10 +8560,8 @@
           <t>4314199847</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:37:13</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44280.65084490741</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8845,10 +8633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:37:02</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44280.65071759259</v>
       </c>
       <c r="I116" t="n">
         <v>8</v>
@@ -8924,10 +8710,8 @@
           <t>4314206236</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:35:26</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44280.64960648148</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8999,10 +8783,8 @@
           <t>4314199847</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:35:18</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44280.64951388889</v>
       </c>
       <c r="I118" t="n">
         <v>3</v>
@@ -9074,10 +8856,8 @@
           <t>4314205810</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:35:00</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44280.64930555555</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9149,10 +8929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:33:52</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44280.64851851852</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9224,10 +9002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:30:24</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44280.64611111111</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9299,10 +9075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:26:45</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44280.64357638889</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9370,10 +9144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:26:15</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44280.64322916666</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9449,10 +9221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:24:51</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44280.64225694445</v>
       </c>
       <c r="I124" t="n">
         <v>5</v>
@@ -9528,10 +9298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:18:36</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44280.63791666667</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9608,10 +9376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:17:57</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44280.63746527778</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9675,10 +9441,8 @@
           <t>4314062241</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:11:46</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44280.63317129629</v>
       </c>
       <c r="I127" t="n">
         <v>18</v>
@@ -9750,10 +9514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:10:54</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44280.63256944445</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9817,10 +9579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:10:10</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44280.63206018518</v>
       </c>
       <c r="I129" t="n">
         <v>2</v>
@@ -9896,10 +9656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:08:03</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44280.63059027777</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9975,10 +9733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:07:15</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44280.63003472222</v>
       </c>
       <c r="I131" t="n">
         <v>2</v>
@@ -10054,10 +9810,8 @@
           <t>4314122129</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:06:44</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44280.62967592593</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10133,10 +9887,8 @@
           <t>4314090277</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:00:52</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44280.62560185185</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10204,10 +9956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:57:08</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44280.62300925926</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10271,10 +10021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:54:52</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44280.62143518519</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10350,10 +10098,8 @@
           <t>4314090277</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:54:15</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44280.62100694444</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10417,10 +10163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:53:54</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44280.62076388889</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10484,10 +10228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:53:18</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44280.62034722222</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10563,10 +10305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:49:16</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44280.61754629629</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10638,10 +10378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:48:35</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44280.61707175926</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10705,10 +10443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:48:34</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44280.61706018518</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10768,10 +10504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:48:31</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44280.61702546296</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -10847,10 +10581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:48:30</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44280.61701388889</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10918,10 +10650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:48:07</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44280.61674768518</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10985,10 +10715,8 @@
           <t>4314066517</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:47:46</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44280.61650462963</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -11060,10 +10788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:47:29</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44280.61630787037</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11135,10 +10861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:47:13</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44280.61612268518</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11210,10 +10934,8 @@
           <t>4314062241</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:45:42</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44280.61506944444</v>
       </c>
       <c r="I148" t="n">
         <v>55</v>
@@ -11289,10 +11011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:44:36</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44280.61430555556</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11356,10 +11076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:44:35</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44280.61429398148</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11435,10 +11153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:44:21</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44280.61413194444</v>
       </c>
       <c r="I151" t="n">
         <v>47</v>
@@ -11506,10 +11222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:44:20</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44280.61412037037</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11577,10 +11291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:44:12</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44280.61402777778</v>
       </c>
       <c r="I153" t="n">
         <v>22</v>
@@ -11657,10 +11369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:43:25</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44280.6134837963</v>
       </c>
       <c r="I154" t="n">
         <v>39</v>
@@ -11729,10 +11439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:43:23</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44280.61346064815</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11808,10 +11516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:40:46</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44280.61164351852</v>
       </c>
       <c r="I156" t="n">
         <v>161</v>
@@ -11887,10 +11593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:40:19</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44280.61133101852</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11958,10 +11662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:40:11</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44280.61123842592</v>
       </c>
       <c r="I158" t="n">
         <v>21</v>
@@ -12033,10 +11735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:39:58</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44280.61108796296</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -12104,10 +11804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:39:45</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44280.6109375</v>
       </c>
       <c r="I160" t="n">
         <v>669</v>
@@ -12179,10 +11877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:39:38</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44280.61085648148</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12250,10 +11946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:39:35</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44280.61082175926</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12329,10 +12023,8 @@
           <t>4314042817</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:39:32</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44280.61078703704</v>
       </c>
       <c r="I163" t="n">
         <v>9</v>
@@ -12396,10 +12088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:39:18</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44280.610625</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12475,10 +12165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:39:08</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44280.61050925926</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12554,10 +12242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:39:03</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44280.61045138889</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12629,10 +12315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:38:57</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44280.61038194445</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12696,10 +12380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:37:51</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44280.60961805555</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12767,10 +12449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:37:04</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44280.60907407408</v>
       </c>
       <c r="I169" t="n">
         <v>4</v>
@@ -12842,10 +12522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:36:56</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44280.60898148148</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12913,10 +12591,8 @@
           <t>4314033609</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:36:32</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44280.60870370371</v>
       </c>
       <c r="I171" t="n">
         <v>5</v>
@@ -12992,10 +12668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:36:13</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44280.6084837963</v>
       </c>
       <c r="I172" t="n">
         <v>2</v>
@@ -13074,10 +12748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:35:46</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44280.6081712963</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13145,10 +12817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:35:34</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44280.60803240741</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -13212,10 +12882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:35:09</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44280.60774305555</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13287,10 +12955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:35:08</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44280.60773148148</v>
       </c>
       <c r="I176" t="n">
         <v>1</v>
@@ -13362,10 +13028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:35:04</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44280.60768518518</v>
       </c>
       <c r="I177" t="n">
         <v>130</v>
@@ -13430,10 +13094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:35:01</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44280.60765046296</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13509,10 +13171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:34:51</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44280.60753472222</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
